--- a/aris_snomed_to_icd10.xlsx
+++ b/aris_snomed_to_icd10.xlsx
@@ -8,20 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2714648_ed_ac_uk/Documents/WRD programme/2024.11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{AF565877-CD3F-4D69-A500-E802AB6E365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BCF3DEA-5FAF-4367-B571-ADA026F5EF28}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{AF565877-CD3F-4D69-A500-E802AB6E365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDDEA7F-ABBE-4CF3-B43A-6454223F1956}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{7E00DABA-1765-4C38-B57D-D97C78A11115}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" activeTab="2" xr2:uid="{7E00DABA-1765-4C38-B57D-D97C78A11115}"/>
   </bookViews>
   <sheets>
     <sheet name="SNOMED_to_ICD10" sheetId="2" r:id="rId1"/>
     <sheet name="Unique ICD10 extraction" sheetId="1" r:id="rId2"/>
+    <sheet name="ICD termiology" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="G04.9" localSheetId="2">'ICD termiology'!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="1757">
   <si>
     <t>A</t>
   </si>
@@ -4960,13 +4977,469 @@
   </si>
   <si>
     <t>Suspected COVID-19</t>
+  </si>
+  <si>
+    <t>icd_code</t>
+  </si>
+  <si>
+    <t>G04.9</t>
+  </si>
+  <si>
+    <t>G98</t>
+  </si>
+  <si>
+    <t>L53.9</t>
+  </si>
+  <si>
+    <t>T14.9</t>
+  </si>
+  <si>
+    <t>T81.8</t>
+  </si>
+  <si>
+    <t>T85.7</t>
+  </si>
+  <si>
+    <t>U07.1</t>
+  </si>
+  <si>
+    <t>U07.2</t>
+  </si>
+  <si>
+    <t>Encephalitis, myelitis and encephalomyelitis, unspecified</t>
+  </si>
+  <si>
+    <t>Other disorders of nervous system, not elsewhere classified</t>
+  </si>
+  <si>
+    <t>Influenza due to identified zoonotic or pandemic influenza virus</t>
+  </si>
+  <si>
+    <t>Erythematous condition, unspecified</t>
+  </si>
+  <si>
+    <t>Injury, unspecified</t>
+  </si>
+  <si>
+    <t>Other complications of procedures, not elsewhere classified</t>
+  </si>
+  <si>
+    <t>Infection and inflammatory reaction due to other internal prosthetic devices, implants and grafts</t>
+  </si>
+  <si>
+    <t>COVID-19, virus identified</t>
+  </si>
+  <si>
+    <t>COVID-19, virus not identified</t>
+  </si>
+  <si>
+    <t>Typhoid fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">results </t>
+  </si>
+  <si>
+    <t>Localized salmonella infections</t>
+  </si>
+  <si>
+    <t>Tuberculosis of lung, without mention of bacteriological or histological confirmation</t>
+  </si>
+  <si>
+    <t>Tularaemia, unspecified</t>
+  </si>
+  <si>
+    <t>Pulmonary anthrax</t>
+  </si>
+  <si>
+    <t>Glanders</t>
+  </si>
+  <si>
+    <t>Other specified zoonotic bacterial diseases, not elsewhere classified</t>
+  </si>
+  <si>
+    <t>Other mycobacterial infections</t>
+  </si>
+  <si>
+    <t>Whooping cough due to Bordetella pertussis</t>
+  </si>
+  <si>
+    <t>Whooping cough, unspecified</t>
+  </si>
+  <si>
+    <t>Other meningococcal infections</t>
+  </si>
+  <si>
+    <t>Meningococcal infection, unspecified</t>
+  </si>
+  <si>
+    <t>Septicaemia, unspecified</t>
+  </si>
+  <si>
+    <t>Nocardiosis, unspecified</t>
+  </si>
+  <si>
+    <t>Other specified bacterial diseases</t>
+  </si>
+  <si>
+    <t>Staphylococcal infection, unspecified</t>
+  </si>
+  <si>
+    <t>Streptococcal infection, unspecified</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae infection, unspecified</t>
+  </si>
+  <si>
+    <t>Mycoplasma infection, unspecified</t>
+  </si>
+  <si>
+    <t>Other bacterial infections of unspecified site</t>
+  </si>
+  <si>
+    <t>Bacterial infection, unspecified</t>
+  </si>
+  <si>
+    <t>Late syphilis, unspecified</t>
+  </si>
+  <si>
+    <t>Gonococcal infection, unspecified</t>
+  </si>
+  <si>
+    <t>Chlamydial infection of pharynx</t>
+  </si>
+  <si>
+    <t>Other Vincent's infections</t>
+  </si>
+  <si>
+    <t>Chlamydia psittaci infection</t>
+  </si>
+  <si>
+    <t>Chlamydial infection, unspecified</t>
+  </si>
+  <si>
+    <t>Q fever</t>
+  </si>
+  <si>
+    <t>Rickettsiosis, unspecified</t>
+  </si>
+  <si>
+    <t>Unspecified viral encephalitis</t>
+  </si>
+  <si>
+    <t>Herpesviral gingivostomatitis and pharyngotonsillitis</t>
+  </si>
+  <si>
+    <t>Other forms of herpesviral infection</t>
+  </si>
+  <si>
+    <t>Herpesviral infection, unspecified</t>
+  </si>
+  <si>
+    <t>Rubella without complication</t>
+  </si>
+  <si>
+    <t>Enteroviral vesicular pharyngitis</t>
+  </si>
+  <si>
+    <t>Other specified viral infections characterized by skin and mucous membrane lesions</t>
+  </si>
+  <si>
+    <t>HIV disease resulting in unspecified infectious or parasitic disease</t>
+  </si>
+  <si>
+    <t>Unspecified human immunodeficiency virus [HIV] disease</t>
+  </si>
+  <si>
+    <t>Gammaherpesviral mononucleosis</t>
+  </si>
+  <si>
+    <t>Viral conjunctivitis, unspecified</t>
+  </si>
+  <si>
+    <t>Viral carditis</t>
+  </si>
+  <si>
+    <t>Other specified viral diseases</t>
+  </si>
+  <si>
+    <t>Coronavirus infection, unspecified</t>
+  </si>
+  <si>
+    <t>Other viral infections of unspecified site</t>
+  </si>
+  <si>
+    <t>Viral infection, unspecified</t>
+  </si>
+  <si>
+    <t>Sequelae of other specified infectious and parasitic diseases</t>
+  </si>
+  <si>
+    <t>Other viral agents as the cause of diseases classified to other chapters</t>
+  </si>
+  <si>
+    <t>Other and unspecified infectious diseases</t>
+  </si>
+  <si>
+    <t>Cystic fibrosis with pulmonary manifestations</t>
+  </si>
+  <si>
+    <t>Cystic fibrosis with intestinal manifestations</t>
+  </si>
+  <si>
+    <t>Cystic fibrosis with other manifestations</t>
+  </si>
+  <si>
+    <t>Cystic fibrosis, unspecified</t>
+  </si>
+  <si>
+    <t>Other acute nonsuppurative otitis media</t>
+  </si>
+  <si>
+    <t>Nonsuppurative otitis media, unspecified</t>
+  </si>
+  <si>
+    <t>Suppurative otitis media, unspecified</t>
+  </si>
+  <si>
+    <t>Otitis media, unspecified</t>
+  </si>
+  <si>
+    <t>Eustachian salpingitis</t>
+  </si>
+  <si>
+    <t>Cholesteatoma of middle ear</t>
+  </si>
+  <si>
+    <t>Perforation of tympanic membrane, unspecified</t>
+  </si>
+  <si>
+    <t>Chronic myringitis</t>
+  </si>
+  <si>
+    <t>Other specified disorders of tympanic membrane</t>
+  </si>
+  <si>
+    <t>Acute nasopharyngitis [common cold]</t>
+  </si>
+  <si>
+    <t>Acute sinusitis, unspecified</t>
+  </si>
+  <si>
+    <t>Streptococcal pharyngitis</t>
+  </si>
+  <si>
+    <t>Acute pharyngitis, unspecified</t>
+  </si>
+  <si>
+    <t>Acute tonsillitis due to other specified organisms</t>
+  </si>
+  <si>
+    <t>Acute tonsillitis, unspecified</t>
+  </si>
+  <si>
+    <t>Acute obstructive laryngitis [croup]</t>
+  </si>
+  <si>
+    <t>Other acute upper respiratory infections of multiple sites</t>
+  </si>
+  <si>
+    <t>Acute upper respiratory infection, unspecified</t>
+  </si>
+  <si>
+    <t>Influenza with pneumonia, influenza virus identified</t>
+  </si>
+  <si>
+    <t>Influenza with other respiratory manifestations, influenza virus identified</t>
+  </si>
+  <si>
+    <t>Influenza with other manifestations, influenza virus identified</t>
+  </si>
+  <si>
+    <t>Influenza with pneumonia, virus not identified</t>
+  </si>
+  <si>
+    <t>Influenza with other respiratory manifestations, virus not identified</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus pneumonia</t>
+  </si>
+  <si>
+    <t>Other viral pneumonia</t>
+  </si>
+  <si>
+    <t>Viral pneumonia, unspecified</t>
+  </si>
+  <si>
+    <t>Pneumonia due to Streptococcus pneumoniae</t>
+  </si>
+  <si>
+    <t>Pneumonia due to Haemophilus influenzae</t>
+  </si>
+  <si>
+    <t>Pneumonia due to staphylococcus</t>
+  </si>
+  <si>
+    <t>Pneumonia due to streptococcus, group B</t>
+  </si>
+  <si>
+    <t>Pneumonia due to other streptococci</t>
+  </si>
+  <si>
+    <t>Pneumonia due to other aerobic Gram-negative bacteria</t>
+  </si>
+  <si>
+    <t>Pneumonia due to Mycoplasma pneumoniae</t>
+  </si>
+  <si>
+    <t>Other bacterial pneumonia</t>
+  </si>
+  <si>
+    <t>Bacterial pneumonia, unspecified</t>
+  </si>
+  <si>
+    <t>Bronchopneumonia, unspecified</t>
+  </si>
+  <si>
+    <t>Lobar pneumonia, unspecified</t>
+  </si>
+  <si>
+    <t>Hypostatic pneumonia, unspecified</t>
+  </si>
+  <si>
+    <t>Other pneumonia, organism unspecified</t>
+  </si>
+  <si>
+    <t>Pneumonia, unspecified</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to Mycoplasma pneumoniae</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to Haemophilus influenzae</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to streptococcus</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to parainfluenza virus</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to respiratory syncytial virus</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to echovirus</t>
+  </si>
+  <si>
+    <t>Acute bronchitis due to other specified organisms</t>
+  </si>
+  <si>
+    <t>Acute bronchitis, unspecified</t>
+  </si>
+  <si>
+    <t>Acute bronchiolitis due to respiratory syncytial virus</t>
+  </si>
+  <si>
+    <t>Acute bronchiolitis due to other specified organisms</t>
+  </si>
+  <si>
+    <t>Unspecified acute lower respiratory infection</t>
+  </si>
+  <si>
+    <t>Chronic rhinitis</t>
+  </si>
+  <si>
+    <t>Chronic pharyngitis</t>
+  </si>
+  <si>
+    <t>Chronic maxillary sinusitis</t>
+  </si>
+  <si>
+    <t>Chronic frontal sinusitis</t>
+  </si>
+  <si>
+    <t>Chronic ethmoidal sinusitis</t>
+  </si>
+  <si>
+    <t>Chronic sphenoidal sinusitis</t>
+  </si>
+  <si>
+    <t>Chronic pansinusitis</t>
+  </si>
+  <si>
+    <t>Chronic laryngitis</t>
+  </si>
+  <si>
+    <t>Laryngeal spasm</t>
+  </si>
+  <si>
+    <t>Mucopurulent chronic bronchitis</t>
+  </si>
+  <si>
+    <t>Unspecified chronic bronchitis</t>
+  </si>
+  <si>
+    <t>Chronic obstructive pulmonary disease with acute lower respiratory infection</t>
+  </si>
+  <si>
+    <t>Chronic obstructive pulmonary disease with acute exacerbation, unspecified</t>
+  </si>
+  <si>
+    <t>Other specified chronic obstructive pulmonary disease</t>
+  </si>
+  <si>
+    <t>Predominantly allergic asthma</t>
+  </si>
+  <si>
+    <t>Asthma, unspecified</t>
+  </si>
+  <si>
+    <t>Status asthmaticus</t>
+  </si>
+  <si>
+    <t>Bronchiectasis</t>
+  </si>
+  <si>
+    <t>Pulmonary oedema</t>
+  </si>
+  <si>
+    <t>Other interstitial pulmonary diseases with fibrosis</t>
+  </si>
+  <si>
+    <t>Other specified interstitial pulmonary diseases</t>
+  </si>
+  <si>
+    <t>Interstitial pulmonary disease, unspecified</t>
+  </si>
+  <si>
+    <t>Gangrene and necrosis of lung</t>
+  </si>
+  <si>
+    <t>Diseases of bronchus, not elsewhere classified</t>
+  </si>
+  <si>
+    <t>Other specified respiratory disorders</t>
+  </si>
+  <si>
+    <t>Respiratory disorder, unspecified</t>
+  </si>
+  <si>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>Wheezing</t>
+  </si>
+  <si>
+    <t>Abnormal sputum</t>
+  </si>
+  <si>
+    <t>Observation for other suspected diseases and conditions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5118,6 +5591,19 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -5306,7 +5792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -5421,6 +5907,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5466,7 +5976,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5474,6 +5984,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5851,9 +6371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39698A7-5F58-4BC9-960B-DFAFA0A6C3F9}">
   <dimension ref="A1:E566"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A387" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D408" sqref="D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15455,7 +15975,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16179,4 +16699,1394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E89DE33-E1D9-46F9-89A3-AA994B85BF84}">
+  <dimension ref="A1:B172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="78.6328125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="7"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="7"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="6" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="6" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="7"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="7"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="6" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159" s="7"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="6" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="6" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="6" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B168" s="7"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="6" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="6" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" s="7"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A172">
+    <sortCondition ref="A1:A172"/>
+  </sortState>
+  <mergeCells count="11">
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A73:B73"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>